--- a/CC2 Data.xlsx
+++ b/CC2 Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{1C5E5269-3578-40F7-91DF-D3BB5B30FB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F66CA72-A5C7-45BD-AB0C-CDA108ED96F0}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="1920" windowWidth="17280" windowHeight="8976" activeTab="2" xr2:uid="{3ECD53AE-3ABD-4D52-A675-7B3FCD3800ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ECD53AE-3ABD-4D52-A675-7B3FCD3800ED}"/>
   </bookViews>
   <sheets>
     <sheet name="data03" sheetId="6" r:id="rId1"/>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD0D5DA-A4C7-4448-8DA5-53BF1190489E}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2255,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1EB6E1-B973-475A-A7CC-2139503D70E5}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6:M6"/>
     </sheetView>
   </sheetViews>
